--- a/results/mp/logistic/corona/confidence/84/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,25 +40,28 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>die</t>
+    <t>fears</t>
   </si>
   <si>
     <t>drop</t>
@@ -67,67 +70,76 @@
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>love</t>
+    <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>thank</t>
@@ -136,88 +148,73 @@
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>better</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>safety</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -575,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +583,7 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8333333333333334</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,13 +665,13 @@
         <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9230769230769231</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -694,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8047945205479452</v>
+        <v>0.7842465753424658</v>
       </c>
       <c r="C5">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D5">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K6">
-        <v>0.8916666666666667</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L6">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="M6">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8407310704960835</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>322</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>322</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K8">
-        <v>0.8392857142857143</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L8">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6756756756756757</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8015665796344648</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>307</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>307</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.576271186440678</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K10">
-        <v>0.796875</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L10">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="M10">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5238095238095238</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C11">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.775</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5098039215686274</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K12">
-        <v>0.7878787878787878</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5096899224806202</v>
+        <v>0.5058139534883721</v>
       </c>
       <c r="C13">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D13">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K13">
-        <v>0.7816901408450704</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.4496644295302014</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.765625</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4697986577181208</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C15">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1291,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>0.775</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L16">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="M16">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,13 +1341,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1362,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K17">
-        <v>0.7735849056603774</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1394,13 +1391,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1412,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K18">
-        <v>0.7682926829268293</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3571428571428572</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1462,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>0.7674418604651163</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1486,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1494,13 +1491,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2888888888888889</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1512,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K20">
-        <v>0.7446808510638298</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1536,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1544,13 +1541,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2467532467532468</v>
+        <v>0.1420911528150134</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1562,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>58</v>
+        <v>320</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1586,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1594,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2420634920634921</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="C22">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1612,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K22">
-        <v>0.6984126984126984</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1636,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1644,37 +1641,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1474530831099196</v>
+        <v>0.0109642050951306</v>
       </c>
       <c r="C23">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>318</v>
+        <v>3067</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K23">
-        <v>0.6785714285714286</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1686,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1694,13 +1691,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.008698453608247423</v>
+        <v>0.008874357776739842</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>0.1</v>
@@ -1712,19 +1709,19 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3077</v>
+        <v>2122</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K24">
-        <v>0.6411764705882353</v>
+        <v>0.65</v>
       </c>
       <c r="L24">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1736,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>122</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1744,13 +1741,13 @@
         <v>53</v>
       </c>
       <c r="K25">
-        <v>0.6285714285714286</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1762,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1770,13 +1767,13 @@
         <v>54</v>
       </c>
       <c r="K26">
-        <v>0.625</v>
+        <v>0.6135593220338983</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1788,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1796,13 +1793,13 @@
         <v>55</v>
       </c>
       <c r="K27">
-        <v>0.6153846153846154</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1814,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1822,13 +1819,13 @@
         <v>56</v>
       </c>
       <c r="K28">
-        <v>0.5941422594142259</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1840,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1848,25 +1845,25 @@
         <v>57</v>
       </c>
       <c r="K29">
-        <v>0.5816326530612245</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L29">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1874,13 +1871,13 @@
         <v>58</v>
       </c>
       <c r="K30">
-        <v>0.574468085106383</v>
+        <v>0.58</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1892,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1900,13 +1897,13 @@
         <v>59</v>
       </c>
       <c r="K31">
-        <v>0.54</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1918,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1926,13 +1923,13 @@
         <v>60</v>
       </c>
       <c r="K32">
-        <v>0.5285714285714286</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1944,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>33</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1952,13 +1949,13 @@
         <v>61</v>
       </c>
       <c r="K33">
-        <v>0.5280898876404494</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L33">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1970,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1978,13 +1975,13 @@
         <v>62</v>
       </c>
       <c r="K34">
-        <v>0.4222222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1996,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2004,13 +2001,13 @@
         <v>63</v>
       </c>
       <c r="K35">
-        <v>0.4117647058823529</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2022,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2030,13 +2027,13 @@
         <v>64</v>
       </c>
       <c r="K36">
-        <v>0.3461538461538461</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2048,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2056,13 +2053,13 @@
         <v>65</v>
       </c>
       <c r="K37">
-        <v>0.3333333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2074,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2082,13 +2079,13 @@
         <v>66</v>
       </c>
       <c r="K38">
-        <v>0.3150684931506849</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2100,33 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K39">
-        <v>0.296875</v>
-      </c>
-      <c r="L39">
-        <v>19</v>
-      </c>
-      <c r="M39">
-        <v>19</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
